--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9720</v>
+        <v>9660.60250133672</v>
       </c>
       <c r="C2">
-        <v>20961</v>
+        <v>20899.18713995252</v>
       </c>
       <c r="D2">
-        <v>43098</v>
+        <v>43012.21701260158</v>
       </c>
       <c r="E2">
-        <v>67650</v>
+        <v>67356.68017786511</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>87658</v>
+        <v>87187.40227170222</v>
       </c>
       <c r="C3">
-        <v>165376</v>
+        <v>164939.3622348059</v>
       </c>
       <c r="D3">
-        <v>214544</v>
+        <v>213192.1293490655</v>
       </c>
       <c r="E3">
-        <v>247435</v>
+        <v>246141.7882807517</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9540</v>
+        <v>9416.270828340033</v>
       </c>
       <c r="C4">
-        <v>18428</v>
+        <v>18326.9293630279</v>
       </c>
       <c r="D4">
-        <v>31995</v>
+        <v>31818.6464115022</v>
       </c>
       <c r="E4">
-        <v>43715</v>
+        <v>43476.87719194888</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>17712</v>
+        <v>17406.16513793905</v>
       </c>
       <c r="C6">
-        <v>23485</v>
+        <v>23338.21032166498</v>
       </c>
       <c r="D6">
-        <v>24976</v>
+        <v>24646.40781747946</v>
       </c>
       <c r="E6">
-        <v>22218</v>
+        <v>22127.86894278204</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2740</v>
+        <v>2678.73864901274</v>
       </c>
       <c r="C7">
-        <v>5790</v>
+        <v>5721.422959108772</v>
       </c>
       <c r="D7">
-        <v>7447</v>
+        <v>7349.267618257169</v>
       </c>
       <c r="E7">
-        <v>8940</v>
+        <v>8905.534217615552</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>231620</v>
+        <v>228125.0293063644</v>
       </c>
       <c r="C9">
-        <v>387229</v>
+        <v>380519.3329503042</v>
       </c>
       <c r="D9">
-        <v>564608</v>
+        <v>563468.8419364538</v>
       </c>
       <c r="E9">
-        <v>740520</v>
+        <v>736949.3661745077</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>100590</v>
+        <v>94860.92602788289</v>
       </c>
       <c r="C12">
-        <v>151122</v>
+        <v>142701.9058444258</v>
       </c>
       <c r="D12">
-        <v>214248</v>
+        <v>209030.9729086272</v>
       </c>
       <c r="E12">
-        <v>223040</v>
+        <v>218875.257823178</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9660.60250133672</v>
+        <v>8690.781394216378</v>
       </c>
       <c r="C2">
-        <v>20899.18713995252</v>
+        <v>19164.39672561646</v>
       </c>
       <c r="D2">
-        <v>43012.21701260158</v>
+        <v>40532.54313932453</v>
       </c>
       <c r="E2">
-        <v>67356.68017786511</v>
+        <v>64429.91591497442</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>87187.40227170222</v>
+        <v>86527.72588456035</v>
       </c>
       <c r="C3">
-        <v>164939.3622348059</v>
+        <v>164219.1735516114</v>
       </c>
       <c r="D3">
-        <v>213192.1293490655</v>
+        <v>212699.7624033248</v>
       </c>
       <c r="E3">
-        <v>246141.7882807517</v>
+        <v>245755.6941465003</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9416.270828340033</v>
+        <v>10514.23207350867</v>
       </c>
       <c r="C4">
-        <v>18326.9293630279</v>
+        <v>20347.07322334999</v>
       </c>
       <c r="D4">
-        <v>31818.6464115022</v>
+        <v>34599.75480660386</v>
       </c>
       <c r="E4">
-        <v>43476.87719194888</v>
+        <v>46604.99977933062</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>17406.16513793905</v>
+        <v>17279.44193622381</v>
       </c>
       <c r="C6">
-        <v>23338.21032166498</v>
+        <v>23062.93256826021</v>
       </c>
       <c r="D6">
-        <v>24646.40781747946</v>
+        <v>24320.20236616212</v>
       </c>
       <c r="E6">
-        <v>22127.86894278204</v>
+        <v>21848.39785348927</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2678.73864901274</v>
+        <v>2688.193038647474</v>
       </c>
       <c r="C7">
-        <v>5721.422959108772</v>
+        <v>5708.199137885287</v>
       </c>
       <c r="D7">
-        <v>7349.267618257169</v>
+        <v>7311.306171989646</v>
       </c>
       <c r="E7">
-        <v>8905.534217615552</v>
+        <v>8856.922121892083</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>228125.0293063644</v>
+        <v>194302.3564336313</v>
       </c>
       <c r="C9">
-        <v>380519.3329503042</v>
+        <v>328820.8588592039</v>
       </c>
       <c r="D9">
-        <v>563468.8419364538</v>
+        <v>504720.5053344846</v>
       </c>
       <c r="E9">
-        <v>736949.3661745077</v>
+        <v>675246.4103933682</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>94860.92602788289</v>
+        <v>89871.92181630316</v>
       </c>
       <c r="C12">
-        <v>142701.9058444258</v>
+        <v>134419.7290832969</v>
       </c>
       <c r="D12">
-        <v>209030.9729086272</v>
+        <v>196764.1070359797</v>
       </c>
       <c r="E12">
-        <v>218875.257823178</v>
+        <v>205451.0401678035</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV.xlsx
@@ -428,7 +428,7 @@
         <v>20347.07322334999</v>
       </c>
       <c r="D4">
-        <v>34599.75480660386</v>
+        <v>34599.75480660387</v>
       </c>
       <c r="E4">
         <v>46604.99977933062</v>
@@ -479,10 +479,10 @@
         <v>5708.199137885287</v>
       </c>
       <c r="D7">
-        <v>7311.306171989646</v>
+        <v>7311.306171989647</v>
       </c>
       <c r="E7">
-        <v>8856.922121892083</v>
+        <v>8856.922121892085</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -516,7 +516,7 @@
         <v>504720.5053344846</v>
       </c>
       <c r="E9">
-        <v>675246.4103933682</v>
+        <v>675246.4103933681</v>
       </c>
     </row>
     <row r="10" spans="1:5">
